--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3748.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3748.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248015485168501</v>
+        <v>0.7056151032447815</v>
       </c>
       <c r="B1">
-        <v>2.547505900262371</v>
+        <v>1.34458601474762</v>
       </c>
       <c r="C1">
-        <v>4.609697873832252</v>
+        <v>4.207367897033691</v>
       </c>
       <c r="D1">
-        <v>3.10871271436373</v>
+        <v>1.531088471412659</v>
       </c>
       <c r="E1">
-        <v>1.153963399402054</v>
+        <v>0.6774513721466064</v>
       </c>
     </row>
   </sheetData>
